--- a/biology/Botanique/Myosotis_sylvatica/Myosotis_sylvatica.xlsx
+++ b/biology/Botanique/Myosotis_sylvatica/Myosotis_sylvatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myosotis sylvatica, communément appelé en français Myosotis des bois ou Myosotis des forêts, est une plante herbacée vivace de la famille des Boraginaceae et du genre Myosotis.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Myosotis sylvatica subsp. sylvatica.
 			Inflorescences.
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace ou bisannuelle, à courte durée de vie, avec un port dressé, atteignant 12 à 30 cm de hauteur par 15 cm de largeur, avec des feuilles velues et une profusion de fleurs d'avril à juin, groupées en inflorescences recourbées, de couleur bleu ciel, larges de 6 à 10 mm, aux lobes plats[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace ou bisannuelle, à courte durée de vie, avec un port dressé, atteignant 12 à 30 cm de hauteur par 15 cm de largeur, avec des feuilles velues et une profusion de fleurs d'avril à juin, groupées en inflorescences recourbées, de couleur bleu ciel, larges de 6 à 10 mm, aux lobes plats.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois clairs et frais, lisières, prés.
 </t>
@@ -606,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque toute l'Europe sauf le sud-ouest et l'extrême nord.
 </t>
